--- a/chatbot-1.xlsx
+++ b/chatbot-1.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNO0785\Desktop\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF1EC76-57E3-4DBA-AA87-F163476F0139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91574907-33D2-49E5-A535-FB32E932DF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="FAQ" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$A$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FAQ!$A$1:$A$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$113</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="300">
   <si>
     <t>Category</t>
   </si>
@@ -661,9 +662,6 @@
     <t>Links</t>
   </si>
   <si>
-    <t>MDLZ D4GV Data FootPrint - Power BI(Dataverse)</t>
-  </si>
-  <si>
     <t>How can I ingest data in DIAT ?</t>
   </si>
   <si>
@@ -703,24 +701,12 @@
     <t>https://teams.mdlz.com/:x:/r/sites/dadocumentrepository/_layouts/15/Doc.aspx?sourcedoc=%7B1BBC4240-FBCC-4384-96F2-9750F91D6A4B%7D&amp;file=gcp%20template%20for%20objects%20to%20be%20added%20in%20config%20sheet%20v2.0.xlsx&amp;action=default&amp;mobileredirect=true</t>
   </si>
   <si>
-    <t>Data/Sources in GCP</t>
-  </si>
-  <si>
-    <t>Daas SPOCs</t>
-  </si>
-  <si>
     <t>https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269</t>
   </si>
   <si>
-    <t>DaaS  SPOCs</t>
-  </si>
-  <si>
     <t>Sub Category</t>
   </si>
   <si>
-    <t>Domain Architecture and Models</t>
-  </si>
-  <si>
     <t>Do we have data in Azure? Which domains are to be onboarded to Azure?</t>
   </si>
   <si>
@@ -745,9 +731,6 @@
     <t>https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx#cross-functional-consumption-scenario</t>
   </si>
   <si>
-    <t>D4GV Architecture</t>
-  </si>
-  <si>
     <t>What is the high-level data architecture of the D4GV platform? For what all domains/ use cases can I leverage D4GV?</t>
   </si>
   <si>
@@ -838,12 +821,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>DaaS</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t>D&amp;A Operating model</t>
   </si>
   <si>
@@ -859,9 +836,6 @@
     <t>Platform</t>
   </si>
   <si>
-    <t>Ace</t>
-  </si>
-  <si>
     <t>Platform Model</t>
   </si>
   <si>
@@ -875,6 +849,99 @@
   </si>
   <si>
     <t>PowerBI link</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Data COE(DaaS)</t>
+  </si>
+  <si>
+    <t>SPOCs</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Data COE day in life</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day in life of Demand </t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Data Ingestion and Engineering</t>
+  </si>
+  <si>
+    <t>Technical Design Document.xlsx</t>
+  </si>
+  <si>
+    <t>MDLZ D4GV Data FootPrint - Power BI_Dataverse</t>
+  </si>
+  <si>
+    <t>Common_Question</t>
+  </si>
+  <si>
+    <t>Ans_Links</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DaaS Document Repository - Templates - All Documents (mdlz.com)</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates&amp;p=true&amp;ga=1</t>
+  </si>
+  <si>
+    <t>https://teams.mdlz.com/:x:/r/sites/ibsdataandanalytics/_layouts/15/Doc2.aspx?action=edit&amp;sourcedoc=%7Bb0793a6c-1cca-4f8f-93b9-b1268718cb9d%7D&amp;wdOrigin=TEAMS-MAGLEV.teamsSdk_ns.rwc&amp;wdExp=TEAMS-TREATMENT&amp;wdhostclicktime=1727088228242&amp;web=1</t>
+  </si>
+  <si>
+    <t>Demand Tracker</t>
+  </si>
+  <si>
+    <t>Demand Intake</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>What is DIAT</t>
+  </si>
+  <si>
+    <t>What is DaaS</t>
+  </si>
+  <si>
+    <t>Where can raise a Demand Request</t>
+  </si>
+  <si>
+    <t>Where can I find RACI for project deliverables</t>
+  </si>
+  <si>
+    <t>Where can I find all SPOCs</t>
+  </si>
+  <si>
+    <t>Where can I know more about Domain Modelling</t>
+  </si>
+  <si>
+    <t>Where can I search for Data availability in D4GV</t>
+  </si>
+  <si>
+    <t>Where can I find latest Templates for Data COE</t>
+  </si>
+  <si>
+    <t>What is the process for Onboarding in DE-DI</t>
   </si>
 </sst>
 </file>
@@ -926,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -956,32 +1023,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -991,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1014,16 +1055,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,14 +1382,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
-  <dimension ref="A1:L111"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E95" zoomScale="93" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
@@ -1370,7 +1407,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1387,16 +1424,19 @@
       <c r="F1" t="s">
         <v>205</v>
       </c>
+      <c r="G1" t="s">
+        <v>269</v>
+      </c>
       <c r="L1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1416,12 +1456,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1437,12 +1477,12 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1458,12 +1498,12 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1479,12 +1519,12 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1500,12 +1540,12 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1525,12 +1565,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1538,16 +1578,20 @@
       <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1567,12 +1611,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -1588,12 +1632,12 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -1601,32 +1645,36 @@
       <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G12" s="2"/>
       <c r="K12" s="1"/>
@@ -1636,10 +1684,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
@@ -1655,12 +1703,12 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -1678,10 +1726,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -1699,10 +1747,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -1724,10 +1772,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -1743,9 +1791,9 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
@@ -1764,9 +1812,9 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
@@ -1785,9 +1833,9 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
@@ -1806,9 +1854,9 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -1827,9 +1875,9 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
@@ -1848,12 +1896,12 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
@@ -1869,9 +1917,9 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -1890,12 +1938,12 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
@@ -1911,12 +1959,12 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
@@ -1932,12 +1980,12 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
@@ -1953,12 +2001,12 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -1974,12 +2022,12 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -1995,12 +2043,12 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>26</v>
@@ -2016,12 +2064,12 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>27</v>
@@ -2037,12 +2085,12 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>27</v>
@@ -2058,12 +2106,12 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
@@ -2081,10 +2129,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>22</v>
@@ -2100,12 +2148,12 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>31</v>
@@ -2117,16 +2165,16 @@
         <v>151</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>31</v>
@@ -2138,16 +2186,16 @@
         <v>151</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
@@ -2163,12 +2211,12 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>31</v>
@@ -2184,12 +2232,12 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -2198,19 +2246,19 @@
         <v>82</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -2219,19 +2267,19 @@
         <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
@@ -2247,12 +2295,12 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
@@ -2268,12 +2316,12 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>28</v>
@@ -2289,12 +2337,12 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
@@ -2310,12 +2358,12 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>30</v>
@@ -2324,19 +2372,19 @@
         <v>88</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>135</v>
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>30</v>
@@ -2352,12 +2400,12 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>34</v>
@@ -2373,12 +2421,12 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>35</v>
@@ -2394,12 +2442,12 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>36</v>
@@ -2415,12 +2463,12 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>37</v>
@@ -2436,12 +2484,12 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>38</v>
@@ -2457,12 +2505,12 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>39</v>
@@ -2478,12 +2526,12 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
@@ -2499,12 +2547,12 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>41</v>
@@ -2520,12 +2568,12 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>22</v>
@@ -2541,12 +2589,12 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>22</v>
@@ -2562,12 +2610,12 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>22</v>
@@ -2583,12 +2631,12 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>22</v>
@@ -2604,12 +2652,12 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>22</v>
@@ -2627,10 +2675,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>42</v>
@@ -2639,19 +2687,19 @@
         <v>103</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>42</v>
@@ -2660,7 +2708,7 @@
         <v>104</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>136</v>
@@ -2669,10 +2717,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
@@ -2692,10 +2740,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
@@ -2715,10 +2763,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>43</v>
@@ -2736,10 +2784,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>44</v>
@@ -2748,19 +2796,19 @@
         <v>108</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>22</v>
@@ -2776,12 +2824,12 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
@@ -2799,10 +2847,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
@@ -2820,10 +2868,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
@@ -2839,12 +2887,12 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>23</v>
@@ -2860,12 +2908,12 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>29</v>
@@ -2881,12 +2929,12 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>23</v>
@@ -2902,12 +2950,12 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>23</v>
@@ -2919,16 +2967,16 @@
         <v>138</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
@@ -2948,10 +2996,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
@@ -2969,10 +3017,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
@@ -2988,12 +3036,12 @@
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>157</v>
@@ -3008,12 +3056,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>159</v>
@@ -3028,12 +3076,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>161</v>
@@ -3048,12 +3096,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>163</v>
@@ -3068,9 +3116,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>165</v>
@@ -3088,12 +3136,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>167</v>
@@ -3108,12 +3156,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>169</v>
@@ -3128,12 +3176,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>171</v>
@@ -3148,12 +3196,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>173</v>
@@ -3168,12 +3216,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>175</v>
@@ -3188,12 +3236,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>177</v>
@@ -3208,12 +3256,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>179</v>
@@ -3228,12 +3276,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>181</v>
@@ -3248,12 +3296,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>181</v>
@@ -3268,14 +3316,14 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C91" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -3288,9 +3336,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>165</v>
@@ -3299,18 +3347,18 @@
         <v>165</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>165</v>
@@ -3319,307 +3367,307 @@
         <v>165</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:6" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="E95" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>270</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>265</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="D99" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>265</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C98" s="8" t="s">
+      <c r="E99" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E100" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>265</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="8" t="s">
+      <c r="F100" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="E101" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="F101" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>265</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100" s="8" t="s">
+      <c r="E102" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="F102" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E103" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>265</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="F103" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E104" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>265</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>265</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>265</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>263</v>
+      <c r="F104" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>266</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>267</v>
+        <v>289</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C106" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>266</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>269</v>
+        <v>289</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>271</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>273</v>
+        <v>263</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>140</v>
@@ -3628,18 +3676,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>271</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>275</v>
+        <v>263</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>140</v>
@@ -3650,16 +3698,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>272</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>274</v>
+        <v>290</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>140</v>
@@ -3670,16 +3718,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>272</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>276</v>
+        <v>290</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>140</v>
@@ -3688,7 +3736,18 @@
         <v>6</v>
       </c>
     </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="113" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <autoFilter ref="A1:G113" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ace"/>
+        <filter val="Demand"/>
+        <filter val="PM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" display="https://teams.mdlz.com/:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C9234C41-0B35-449D-A059-14FCD43DD586}"/>
     <hyperlink ref="L12" r:id="rId2" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{B1E49C27-813B-4F81-B6D4-F88CC7C95F9A}"/>
@@ -3704,229 +3763,414 @@
     <hyperlink ref="E66" r:id="rId12" xr:uid="{686E5F8D-844C-4C18-9501-9E6758C603E8}"/>
     <hyperlink ref="E24" r:id="rId13" xr:uid="{9594DC43-05C5-4838-AD7D-1BC8D5EFD8A4}"/>
     <hyperlink ref="E73" r:id="rId14" xr:uid="{99EABB0F-E4A2-4DDC-9EF5-A351FEF65D4E}"/>
-    <hyperlink ref="F73" r:id="rId15" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/c6c38beb-669e-450e-81e4-619fd0755198/ReportSectione129d77b0b5890b16600?ctid=18a01ad8-9727-498a-a47d-17374c6fd9f7&amp;experience=power-bi" xr:uid="{B9BE20EA-EE7B-47CC-A790-C6BF6B413C59}"/>
-    <hyperlink ref="E59" r:id="rId16" xr:uid="{C9B5CF69-8987-424C-8F20-66D362A2C12D}"/>
-    <hyperlink ref="E58" r:id="rId17" xr:uid="{0BE0E0F4-A8F0-4A77-9164-DD340F69677A}"/>
-    <hyperlink ref="E57" r:id="rId18" xr:uid="{2501E0CA-BFF1-42DE-AE77-BC958B364763}"/>
-    <hyperlink ref="E56" r:id="rId19" xr:uid="{BD52AF16-2BBA-441F-A592-8A2D9F2C83A4}"/>
-    <hyperlink ref="E55" r:id="rId20" xr:uid="{565D6E72-B6B9-4C95-ABA9-9429D45E0DDF}"/>
-    <hyperlink ref="E42" r:id="rId21" xr:uid="{67C6D6DE-DEF8-4FB2-8612-469E441DD613}"/>
-    <hyperlink ref="E41" r:id="rId22" xr:uid="{8CF3EC86-4232-4237-B44A-67C19504998A}"/>
-    <hyperlink ref="E38" r:id="rId23" display="https://collaboration.mdlz.com/sites/GlobalInformationArchitecture/Teamsite%20Docs/Forms/AllItems.aspx?RootFolder=%2Fsites%2FGlobalInformationArchitecture%2FTeamsite%20Docs%2F03%20Data%20Modelling%2F08%20Internal%2FDMGB%2FGoogle%20Cloud%20Platform%20%28GCP%29&amp;FolderCTID=0x012000C84CF3322F5395439F970FFE45F11624&amp;View=%7B0051ADD9%2D3492%2D4EB4%2D9003%2D8DFC4812C26A%7D" xr:uid="{CC4B9869-C29C-46F3-B287-2316039C2E19}"/>
-    <hyperlink ref="E36" r:id="rId24" xr:uid="{456ADA60-16DA-484E-883F-8707EA751CF8}"/>
-    <hyperlink ref="E35" r:id="rId25" xr:uid="{5A753773-5C17-4ADD-8C4A-366528AFA560}"/>
-    <hyperlink ref="E34" r:id="rId26" display="https://teams.mdlz.com/sites/ibsdataandanalytics/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=84dhni&amp;CID=1970e002%2Dc09b%2D4529%2Dae90%2Dc45ebad9e166&amp;FolderCTID=0x012000442F74408945C8449981E1D447B1A95A&amp;id=%2Fsites%2Fibsdataandanalytics%2FShared%20Documents%2FDemand%20Intake%20%28Demand%20Management%29%2FInventory&amp;viewid=ef187201%2D331f%2D4fed%2D9fa9%2D4a5466e904fe" xr:uid="{DFC81AD3-2B79-42DC-8D54-13E4C0470F8E}"/>
-    <hyperlink ref="E32" r:id="rId27" xr:uid="{F04ED0D4-F445-40E8-8E58-2589FF117322}"/>
-    <hyperlink ref="E31" r:id="rId28" xr:uid="{F0AAC984-5059-47CD-B9EE-6D85858CCFAD}"/>
-    <hyperlink ref="E29" r:id="rId29" xr:uid="{35C80290-8A76-4B64-99F1-B574A9D5C6EF}"/>
-    <hyperlink ref="E28" r:id="rId30" xr:uid="{90EDFEA4-5DD7-4A14-A1D8-0C7F95925C34}"/>
-    <hyperlink ref="E23" r:id="rId31" xr:uid="{19660AAA-ACC9-474C-B197-147EB625060D}"/>
-    <hyperlink ref="E22" r:id="rId32" xr:uid="{465D43E2-D47A-4B64-8DE2-81BBD53C4C87}"/>
-    <hyperlink ref="E21" r:id="rId33" xr:uid="{82E9383D-E231-4B23-9568-6115CE756F91}"/>
-    <hyperlink ref="E16" r:id="rId34" xr:uid="{809D2478-6369-4614-8080-BF7B17C99938}"/>
-    <hyperlink ref="E20" r:id="rId35" xr:uid="{4F9B489D-28CD-4B53-BE6B-57AFB0910D4B}"/>
-    <hyperlink ref="E37" r:id="rId36" xr:uid="{AC263CAA-FA63-4773-950B-21A9093827BA}"/>
-    <hyperlink ref="E19" r:id="rId37" xr:uid="{A67E0CAC-B324-4165-BB2D-E4B33C536308}"/>
-    <hyperlink ref="E18" r:id="rId38" xr:uid="{0F8D66A4-1A9D-41FC-A84B-B60915CF0A17}"/>
-    <hyperlink ref="E17" r:id="rId39" xr:uid="{3B78E189-C2F7-46AF-8239-B1DE21D8EC14}"/>
-    <hyperlink ref="E64" r:id="rId40" xr:uid="{50FA1012-8249-4E58-8823-79887C67908E}"/>
-    <hyperlink ref="E63" r:id="rId41" xr:uid="{F52B67BA-2FE6-460B-8392-D47E7AAC0292}"/>
-    <hyperlink ref="E62" r:id="rId42" xr:uid="{2DE72495-E0E0-46C8-BADE-EBF6444469DB}"/>
-    <hyperlink ref="E26" r:id="rId43" xr:uid="{DD2C39DA-D6CB-4520-8C88-441E1827EE5C}"/>
-    <hyperlink ref="E27" r:id="rId44" xr:uid="{4F6EEDB5-9C0A-4EA7-B9FA-3E68BD396E9A}"/>
-    <hyperlink ref="E25" r:id="rId45" xr:uid="{15FF39EE-F73F-4F9A-84D7-4608A9C1E3C4}"/>
-    <hyperlink ref="E13" r:id="rId46" xr:uid="{AC414B62-9A7B-4B7B-8E4C-567EB618631E}"/>
-    <hyperlink ref="E76" r:id="rId47" xr:uid="{E425C267-4132-46E8-8B55-EF90DFDB2294}"/>
-    <hyperlink ref="E75" r:id="rId48" xr:uid="{9650BE8A-1ABE-45DA-9078-04937240F75C}"/>
-    <hyperlink ref="E74" r:id="rId49" xr:uid="{48090E4E-4843-4EEB-9D4E-8DCD9BCA72D9}"/>
-    <hyperlink ref="E71" r:id="rId50" xr:uid="{B83621A1-0420-4925-ADE8-B909FF267105}"/>
-    <hyperlink ref="E69" r:id="rId51" xr:uid="{B57F3E74-8F01-45AA-9239-B5B8D0090662}"/>
-    <hyperlink ref="E68" r:id="rId52" xr:uid="{11BAE57F-7FE9-4D9F-A709-E42FE89998B5}"/>
-    <hyperlink ref="E54" r:id="rId53" xr:uid="{7DDD7085-558E-43C5-B519-935AC2D923B3}"/>
-    <hyperlink ref="E53" r:id="rId54" xr:uid="{6C9C9FDD-ADF0-4C05-8E4F-C77D71C7B704}"/>
-    <hyperlink ref="E52" r:id="rId55" xr:uid="{F95577AB-8CB4-4BA8-A804-66C2E69312E0}"/>
-    <hyperlink ref="E51" r:id="rId56" xr:uid="{E378EE4E-0C39-4CAE-9979-58FFD29F216B}"/>
-    <hyperlink ref="E50" r:id="rId57" xr:uid="{944E3722-0C65-4FF0-8574-1D80ADD42183}"/>
-    <hyperlink ref="E49" r:id="rId58" xr:uid="{3FD6CD22-665F-4A95-82B0-84EAD62C7331}"/>
-    <hyperlink ref="E48" r:id="rId59" xr:uid="{1F212AB4-942F-4CE1-A355-87E7EFCA59E9}"/>
-    <hyperlink ref="E47" r:id="rId60" xr:uid="{DA62E039-3933-4ABA-9494-9E077E79A90A}"/>
-    <hyperlink ref="E46" r:id="rId61" xr:uid="{11BE553E-F607-4CE7-B916-5476AEA7FFCC}"/>
-    <hyperlink ref="E44" r:id="rId62" xr:uid="{B98E24EC-931D-48E1-8B30-C6007D202F8C}"/>
-    <hyperlink ref="E43" r:id="rId63" xr:uid="{7392B55F-9A6D-4BB6-82BD-EC3A839EB271}"/>
-    <hyperlink ref="E33" r:id="rId64" xr:uid="{AF1F7CF6-28A6-481A-BD7B-C1F472DCF452}"/>
-    <hyperlink ref="E30" r:id="rId65" xr:uid="{60065E9E-58F8-409B-8963-8848D5F10AA1}"/>
-    <hyperlink ref="E14" r:id="rId66" xr:uid="{0061FA96-2237-4E7D-9A7F-597618428A6C}"/>
-    <hyperlink ref="E10" r:id="rId67" xr:uid="{F0ECBBAE-0D96-4638-91A3-63464B248A7A}"/>
-    <hyperlink ref="E7" r:id="rId68" xr:uid="{62548266-15A2-4615-B711-31611204224E}"/>
-    <hyperlink ref="E6" r:id="rId69" xr:uid="{759AF8B6-ED20-4EAF-8DB9-0FD2B8442629}"/>
-    <hyperlink ref="E5" r:id="rId70" xr:uid="{3074B0C2-AF4E-4AAF-8129-163B772D5908}"/>
-    <hyperlink ref="E4" r:id="rId71" xr:uid="{1354B08B-20A6-4C76-BD23-AB5E955AFEDD}"/>
-    <hyperlink ref="E3" r:id="rId72" xr:uid="{8629BB1F-7BF6-4C8C-979D-05A90C24629A}"/>
-    <hyperlink ref="E2" r:id="rId73" xr:uid="{8E5266BE-D5BF-4CC6-9C0C-0185498E3702}"/>
-    <hyperlink ref="E9" r:id="rId74" xr:uid="{F3E446E6-0C7B-45B4-962A-A6C751C2540F}"/>
-    <hyperlink ref="F76" r:id="rId75" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{9867CAF2-6FCD-4820-9C27-32DA5B72D253}"/>
-    <hyperlink ref="F75" r:id="rId76" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{591E5EED-CAB2-4BBA-A9F4-1CA3B1F8D869}"/>
-    <hyperlink ref="G74" r:id="rId77" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{8278A77C-BD81-4627-9221-4219BB90AC08}"/>
-    <hyperlink ref="F74" r:id="rId78" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{CE059ADC-6593-4384-8635-CA0EE6AEE7C9}"/>
-    <hyperlink ref="F72" r:id="rId79" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSectionb42953d2b733bb5dd6bd?experience=power-bi" xr:uid="{34154F27-7F7B-4066-A191-511F7D0AF888}"/>
-    <hyperlink ref="F71" r:id="rId80" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{0859B6D9-E623-4946-A526-7CD2BD3DE51F}"/>
-    <hyperlink ref="F70" r:id="rId81" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSection?experience=power-bi" xr:uid="{BAE0BF21-E86D-4A88-9650-9CFCE4782EB6}"/>
-    <hyperlink ref="F69" r:id="rId82" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{C57306CA-EAC3-40DF-A343-FA1178E5728B}"/>
-    <hyperlink ref="F68" r:id="rId83" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{9EB27B76-E0D8-4E48-87C8-4DF7E662EA48}"/>
-    <hyperlink ref="F67" r:id="rId84" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{51072E9D-621D-4C68-A2FE-725D880607E0}"/>
-    <hyperlink ref="F66" r:id="rId85" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{1B892013-6EFE-4FBE-82A0-1FB2CD4DF289}"/>
-    <hyperlink ref="F65" r:id="rId86" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{3F27E5F9-0378-42B0-8F03-D9C6C7B44762}"/>
-    <hyperlink ref="F64" r:id="rId87" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{E3D08A91-8AC8-4C53-BA4D-038D1C7598A4}"/>
-    <hyperlink ref="G63" r:id="rId88" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{40DD8C87-0F9F-4B48-BF52-A2E4776F3EF1}"/>
-    <hyperlink ref="F63" r:id="rId89" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C70B2A6F-7885-4645-AC8C-DE34699EF0BE}"/>
-    <hyperlink ref="G62" r:id="rId90" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{458E7787-8786-4032-8A0D-A2F7F116404E}"/>
-    <hyperlink ref="F62" r:id="rId91" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{0EDD96FC-6962-4EA5-9DD8-47DA6F849526}"/>
-    <hyperlink ref="F61" r:id="rId92" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{4F26B3EC-FCBE-4E9A-96DA-1373FEDEB838}"/>
-    <hyperlink ref="F59" r:id="rId93" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{F33F75FE-C766-40FA-BF6C-40609279EC84}"/>
-    <hyperlink ref="F58" r:id="rId94" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{2B26B620-89B4-4C32-B8B8-46512E4BDB72}"/>
-    <hyperlink ref="F57" r:id="rId95" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{DA516C46-1107-4A85-BCC4-D9E20122F9B0}"/>
-    <hyperlink ref="F56" r:id="rId96" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{0B8C35B6-3936-4575-A80F-0940D5E684C0}"/>
-    <hyperlink ref="F55" r:id="rId97" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{0C872069-8AC3-46AD-ADE1-635E8AA3A1B7}"/>
-    <hyperlink ref="F54" r:id="rId98" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{82CD685A-0390-4F58-BCD1-3A8C83567296}"/>
-    <hyperlink ref="F53" r:id="rId99" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{F73788BD-4321-49D1-B302-17F2255A4187}"/>
-    <hyperlink ref="F52" r:id="rId100" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{FDCDFB82-30F2-4F1F-92A1-12337DDD9352}"/>
-    <hyperlink ref="F51" r:id="rId101" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{B015FBDC-5ADE-4F7A-A9B3-F17F3E3E293F}"/>
-    <hyperlink ref="F50" r:id="rId102" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{3181A8D5-43E8-42F1-B647-0B7E6B568CAB}"/>
-    <hyperlink ref="F49" r:id="rId103" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1600E465-E9CC-4EE6-9880-7141BC94999F}"/>
-    <hyperlink ref="F48" r:id="rId104" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{612ECDF9-26FE-4827-AFB5-9F52CC18AC9B}"/>
-    <hyperlink ref="F47" r:id="rId105" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{A6CADB67-155A-44C8-A39C-EE37F5AF617D}"/>
-    <hyperlink ref="F46" r:id="rId106" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{A3E36300-F9C5-4FB8-8583-27F0592AEC4E}"/>
-    <hyperlink ref="F45" r:id="rId107" display="../../../../:x:/r/sites/dadocumentrepository/Shared Documents/General/Templates/gcp template for objects to be added in config sheet v2.0.xlsx?d=w1bbc4240fbcc438496f29750f91d6a4b&amp;csf=1&amp;web=1&amp;e=q63Sy6" xr:uid="{C5D3CAA7-6722-4E97-9595-6F27C53453ED}"/>
-    <hyperlink ref="F44" r:id="rId108" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{6349C4E6-467E-4BB0-A69C-EE1EC2439648}"/>
-    <hyperlink ref="F43" r:id="rId109" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{FA9F97BE-2456-4D29-AC6B-30981ED16685}"/>
-    <hyperlink ref="F42" r:id="rId110" display="../../../../:x:/s/dadocumentrepository/Ed33gQWPYzdKv0ohxxDwgBwBvkW3A8oyg-3tvHZBCXbf6w?e=LK7BgY" xr:uid="{600DCF95-01B6-4708-8821-A7D523F1B230}"/>
-    <hyperlink ref="F41" r:id="rId111" display="../../../../:x:/s/dadocumentrepository/Ed33gQWPYzdKv0ohxxDwgBwBvkW3A8oyg-3tvHZBCXbf6w?e=LK7BgY" xr:uid="{F57E9171-154D-45CB-B7F2-3D017B5C2046}"/>
-    <hyperlink ref="F40" r:id="rId112" display="../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{6FF2CF78-3E3E-416E-AAF3-04D22BAAC71B}"/>
-    <hyperlink ref="F39" r:id="rId113" display="../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{97C36AAA-C61A-4A66-B62C-C9C6E92E25FC}"/>
-    <hyperlink ref="F38" r:id="rId114" display="https://collaboration.mdlz.com/sites/GlobalInformationArchitecture/Teamsite Docs/Forms/AllItems.aspx?RootFolder=%2Fsites%2FGlobalInformationArchitecture%2FTeamsite%20Docs%2F03%20Data%20Modelling%2F08%20Internal%2FDMGB%2FGoogle%20Cloud%20Platform%20%28GCP%29&amp;FolderCTID=0x012000C84CF3322F5395439F970FFE45F11624&amp;View=%7B0051ADD9%2D3492%2D4EB4%2D9003%2D8DFC4812C26A%7D" xr:uid="{02C1B7D3-FB88-42C6-936D-C6FB6132D9D5}"/>
-    <hyperlink ref="F37" r:id="rId115" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{745009E0-1B7B-4291-9DBA-3244501D95F9}"/>
-    <hyperlink ref="F36" r:id="rId116" display="../../../../:x:/r/sites/dadocumentrepository/Shared Documents/General/Templates/TDD-%7BCLOUD System%7D-%7BProject Name%7D-%7BSource%7D-%7BMST-TRN%7D-Version.xlsx?d=w63ef34bfdd654e67aaed0cf3378484d9&amp;csf=1&amp;web=1&amp;e=tvSWqT" xr:uid="{B7D22D91-053F-4A7D-A9F0-254575B4098C}"/>
-    <hyperlink ref="F35" r:id="rId117" display="../../../../:x:/r/sites/dadocumentrepository/Shared Documents/General/Templates/TDD-%7BCLOUD System%7D-%7BProject Name%7D-%7BSource%7D-%7BMST-TRN%7D-Version.xlsx?d=w63ef34bfdd654e67aaed0cf3378484d9&amp;csf=1&amp;web=1&amp;e=tvSWqT" xr:uid="{D3AA1FF5-634E-4695-8D4A-3573FF16FF84}"/>
-    <hyperlink ref="F34" r:id="rId118" display="../../../ibsdataandanalytics/Shared Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=84dhni&amp;CID=1970e002%2Dc09b%2D4529%2Dae90%2Dc45ebad9e166&amp;FolderCTID=0x012000442F74408945C8449981E1D447B1A95A&amp;id=%2Fsites%2Fibsdataandanalytics%2FShared%20Documents%2FDemand%20Intake%20%28Demand%20Management%29%2FInventory&amp;viewid=ef187201%2D331f%2D4fed%2D9fa9%2D4a5466e904fe" xr:uid="{AF797BDA-A4DB-4879-9101-F93DCACBF4C4}"/>
-    <hyperlink ref="F33" r:id="rId119" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{BDA9D5AC-E305-4375-BDCB-A3A2C70A472C}"/>
-    <hyperlink ref="F32" r:id="rId120" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{46EE7B3F-0273-463D-B0A9-DCD842863A1F}"/>
-    <hyperlink ref="F31" r:id="rId121" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{A023D956-A386-434F-87BD-FA25FDD8889B}"/>
-    <hyperlink ref="F30" r:id="rId122" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{70B2CD7B-6CDC-4217-AFEB-4A6AC5C86B81}"/>
-    <hyperlink ref="F29" r:id="rId123" display="../../../../:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{CCD37624-847E-4FA1-82DD-AA197880B1BE}"/>
-    <hyperlink ref="F28" r:id="rId124" display="../../../../:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{21C71FB1-879B-4CE1-A339-E508591A6958}"/>
-    <hyperlink ref="F27" r:id="rId125" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{AA3036CB-1C68-43BE-854C-EC292421BD10}"/>
-    <hyperlink ref="F26" r:id="rId126" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4C81825C-D975-41F0-A666-EEA72F608211}"/>
-    <hyperlink ref="F25" r:id="rId127" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{24989E5E-AC38-4F29-A6F8-69EC026C5C30}"/>
-    <hyperlink ref="F24" r:id="rId128" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{C4C085F5-00BD-4B5D-9D52-D0540B07C2A8}"/>
-    <hyperlink ref="F23" r:id="rId129" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - TDD process-20240628_192242-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=hTamLo" xr:uid="{54A9E086-FA10-4D99-BA6A-FA6FB708D347}"/>
-    <hyperlink ref="F22" r:id="rId130" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - TDD process-20240628_192242-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=hTamLo" xr:uid="{5BB218F5-4C13-4153-A6BC-1B41EA5ED425}"/>
-    <hyperlink ref="F21" r:id="rId131" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - LDMs-20240627_193717-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=huqlGC" xr:uid="{753F7098-C7B3-4E17-AF1F-C3E2F4A6FF1C}"/>
-    <hyperlink ref="F20" r:id="rId132" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 2_ CDM-20240626_153706-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=cS1ef2" xr:uid="{39EB1B3E-27B1-44FB-8B36-ABDFAC4D5F8B}"/>
-    <hyperlink ref="F19" r:id="rId133" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 1_ IIT BRD-20240626_123420-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=5MZdUs" xr:uid="{1F1F5E2B-EE4B-4F99-99F7-DAE6CA3449CE}"/>
-    <hyperlink ref="F18" r:id="rId134" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 1_ IIT BRD-20240626_123420-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=5MZdUs" xr:uid="{93616845-B62C-4AB4-85EB-E73F1EAF01D3}"/>
-    <hyperlink ref="F17" r:id="rId135" display="../../../../:x:/r/sites/ibsdataandanalytics/Shared Documents/Demand Intake (Demand Management)/Tracker/Self-Service calculator - ROM for AR.xlsx?d=w79218858523d4b12a255c9a5f44abe45&amp;csf=1&amp;web=1&amp;e=VgtJLO" xr:uid="{BEF845F3-6C3A-4AA6-BF76-B71A92915C1E}"/>
-    <hyperlink ref="F16" r:id="rId136" display="../../../../:x:/r/sites/ibsdataandanalytics/Shared Documents/Demand Intake (Demand Management)/Tracker/Self-Service calculator - ROM for AR.xlsx?d=w79218858523d4b12a255c9a5f44abe45&amp;csf=1&amp;web=1&amp;e=VgtJLO" xr:uid="{6708F064-C65D-4829-94FE-14979D4496A8}"/>
-    <hyperlink ref="F14" r:id="rId137" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1B1E0613-449C-4E4F-9CB6-C8584B5CA3DA}"/>
-    <hyperlink ref="F13" r:id="rId138" display="../../../../:p:/s/ibsdataandanalytics/EVrP0mGMOf9EvBkgm8gU_5IBqPMpzSw1aYPDVTJZYX6hzw?e=EiwiBW" xr:uid="{63EC8D18-6F3D-4C13-BF66-AFA071C3FC6D}"/>
-    <hyperlink ref="F10" r:id="rId139" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{25E80D15-9E64-45BF-BAE9-C49F5F5D6B3C}"/>
-    <hyperlink ref="F9" r:id="rId140" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSection?experience=power-bi" xr:uid="{6A1008A0-A608-4A0D-B7B4-92596FDD5629}"/>
-    <hyperlink ref="F7" r:id="rId141" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{1E5F5CCB-0C32-403C-B218-BD8973F8369E}"/>
-    <hyperlink ref="F6" r:id="rId142" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F5F57EE7-743D-429B-BA15-E9DA53DB2D6C}"/>
-    <hyperlink ref="F5" r:id="rId143" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{E590615E-AF8E-439D-A3A4-B630A69A9010}"/>
-    <hyperlink ref="F4" r:id="rId144" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{8319F334-E55B-4064-BCE4-839676879ED0}"/>
-    <hyperlink ref="F3" r:id="rId145" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{524F87E9-CDDC-49AB-B9F4-88A802FC1416}"/>
-    <hyperlink ref="F2" r:id="rId146" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F4CD31E4-542B-4BB1-8982-3720E8D92EBF}"/>
-    <hyperlink ref="E39" r:id="rId147" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Data Domain Experts/../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{5895702F-D5C4-49C2-BF03-3FAFAEBCBBEF}"/>
-    <hyperlink ref="E40" r:id="rId148" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Data Domain Experts/../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{E164F0E7-3C31-4612-9785-9BDD931A79F8}"/>
-    <hyperlink ref="E45" r:id="rId149" xr:uid="{4B4BC587-AA04-40D7-802C-54232295A852}"/>
-    <hyperlink ref="E77" r:id="rId150" xr:uid="{615BC649-E8CB-4F56-8FAA-59203E8FAABE}"/>
-    <hyperlink ref="E78" r:id="rId151" xr:uid="{68C0B065-BC94-43B6-B60E-1C87D9329AE6}"/>
-    <hyperlink ref="E79" r:id="rId152" xr:uid="{A2889DD6-4B21-4E85-89E4-2E413E97743A}"/>
-    <hyperlink ref="E80" r:id="rId153" xr:uid="{C9526E0D-6D70-480D-80F6-7C25A5D05D84}"/>
-    <hyperlink ref="E81" r:id="rId154" xr:uid="{F79B17E9-E5E1-4682-BE14-02309E82801C}"/>
-    <hyperlink ref="E82" r:id="rId155" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{F8E298A9-D82A-4F65-AB92-3861B1BA6A03}"/>
-    <hyperlink ref="E83" r:id="rId156" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{08B439EF-B172-4F73-BAFE-40C0627CDFC6}"/>
-    <hyperlink ref="E84" r:id="rId157" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FGithub&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{3CC686B1-9C15-48F1-80EB-BC6970B7A1A6}"/>
-    <hyperlink ref="E85" r:id="rId158" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FAutomic&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{63FB6FF1-1327-4E25-9322-7F48DA7BD2A4}"/>
-    <hyperlink ref="E86" r:id="rId159" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FNaming%20Convention&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{D171D700-6885-452F-9F72-073B26067447}"/>
-    <hyperlink ref="E87" r:id="rId160" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FWorkflow%20best%20Practices&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{A1E63B6C-8E54-435D-B108-16DF8C4F4292}"/>
-    <hyperlink ref="E88" r:id="rId161" xr:uid="{6F9E2F46-75CF-45C3-A844-CBF2EE4195DE}"/>
-    <hyperlink ref="E89" r:id="rId162" xr:uid="{E8B37FB3-CFF4-4399-BB28-6BECAA3742EF}"/>
-    <hyperlink ref="E90" r:id="rId163" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared%20Documents/General/Data%20Ingestion%20%26%20Engineering%20Tower/AecorSoft/Aecorsoft%20CDC%20task%20configuration%20for%20init%20and%20delta%20load.docx?d=w729d1b343ff64dca9f9c287751dc0908&amp;csf=1&amp;web=1&amp;e=3OAvh1" xr:uid="{D745C36D-B72F-4AA7-A8C3-2A4DC6731F20}"/>
-    <hyperlink ref="E91" r:id="rId164" xr:uid="{4897C36E-281F-4878-9871-6BFA39CA2D9E}"/>
-    <hyperlink ref="F77" r:id="rId165" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{766A6DA7-7398-4A09-B6DD-87174E3031F9}"/>
-    <hyperlink ref="F78" r:id="rId166" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{E78BC6FF-4E17-4F95-853C-5BCA6959ECA5}"/>
-    <hyperlink ref="F79" r:id="rId167" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{666694D8-A717-4816-9528-155C63F6EA7A}"/>
-    <hyperlink ref="F80" r:id="rId168" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{E17B8DA9-5C81-439D-BD98-6E9FA73305B0}"/>
-    <hyperlink ref="F81" r:id="rId169" display="https://teams.mdlz.com/:v:/s/dadocumentrepository/EQ6Fv2roU5ZPkHmVzrEZMmcB7KbJW2owkcr9snTwFCFaXw?e=xrpq28" xr:uid="{E4C995C5-55E5-47F2-BB9C-86D2B940D901}"/>
-    <hyperlink ref="F82" r:id="rId170" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{139D63ED-6FCC-4B80-B6E3-EBE9017CD5B5}"/>
-    <hyperlink ref="F83" r:id="rId171" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{928A8B63-0BCD-471D-8309-F00AA92688BA}"/>
-    <hyperlink ref="F84" r:id="rId172" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FGithub&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{5E23FBD5-ADCD-4372-BCAA-BE3EB2F3322E}"/>
-    <hyperlink ref="F85" r:id="rId173" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FAutomic&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{3BE913CB-FFC3-45BF-BD72-1CF965B9685E}"/>
-    <hyperlink ref="F86" r:id="rId174" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FNaming%20Convention&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{BF28B088-055D-4027-8379-899AC2AA5F25}"/>
-    <hyperlink ref="F87" r:id="rId175" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FWorkflow%20best%20Practices&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{B570AC19-9328-4C88-BC8A-D51E1E70EA7C}"/>
-    <hyperlink ref="F88" r:id="rId176" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft Access Request.docx?d=w6d9ab4d3d2f04991b6816d590966d12f&amp;csf=1&amp;web=1&amp;e=vgXvXk" xr:uid="{6B9E2D68-93B3-4BBA-AE75-15F0DE369A40}"/>
-    <hyperlink ref="F89" r:id="rId177" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft CDC to BQ Task Guidelines.docx?d=w0b729a15ca8c41389ab6f1c3e796602b&amp;csf=1&amp;web=1&amp;e=4vgNBO" xr:uid="{BE39935E-07F8-4F34-8050-7AA23FB635D3}"/>
-    <hyperlink ref="F90" r:id="rId178" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft CDC task configuration for init and delta load.docx?d=w729d1b343ff64dca9f9c287751dc0908&amp;csf=1&amp;web=1&amp;e=3OAvh1" xr:uid="{E3FA2B4E-7A32-4B8E-9E64-8B8D585B5FAD}"/>
-    <hyperlink ref="F91" r:id="rId179" display="https://teams.mdlz.com/:w:/s/dadocumentrepository/EeWQW49qOuhAn50aSi7_jmcBP5hMdobNQfDLu8LntsfHLw?e=d6GrrP" xr:uid="{B7D9E73F-A3E9-4B82-AFE1-D75D4C27C2FF}"/>
-    <hyperlink ref="F92" r:id="rId180" display="../../../../:b:/s/dadocumentrepository/EQtd_KpL0F1Ct47CBwFYPCEBAnnanAL9si5ZyXBfYdL1Jw?e=NJdhKP" xr:uid="{4B62558A-94A0-4AFC-BFC7-2DC10922E43E}"/>
-    <hyperlink ref="F93" r:id="rId181" display="../../../../:b:/s/dadocumentrepository/EaCM77nIUIhAspPUFy-P0UsBIEVBLHGi1AZ9QLbrrBrLcA?e=vjl2Jr" xr:uid="{B6A65FEA-06F7-47B1-BE75-472ACAC427CB}"/>
-    <hyperlink ref="F92:F93" r:id="rId182" display="DIAT_developer_user guide.pdf" xr:uid="{FD3DCBFB-7FA8-4EC5-A58B-65560951B7AB}"/>
-    <hyperlink ref="E92" r:id="rId183" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT%2FDIAT%5Fdeveloper%5Fuser%20guide%2Epdf&amp;parent=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT&amp;p=true&amp;ga=1" xr:uid="{14EE2880-43BC-44F3-99BD-8350858BC0D5}"/>
-    <hyperlink ref="E93" r:id="rId184" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT%2FDIAT%5Fproject%20team%5Fuser%20guide%2Epdf&amp;parent=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT&amp;p=true&amp;ga=1" xr:uid="{1501457E-EC4C-4908-A9A0-3632566ACD1D}"/>
-    <hyperlink ref="E60" r:id="rId185" xr:uid="{202E8945-B70F-4594-931A-78A2A52CD767}"/>
-    <hyperlink ref="F60" r:id="rId186" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{016AFD8D-57A0-446A-A61C-435C09C12EC4}"/>
-    <hyperlink ref="E12" r:id="rId187" location="high-level-strategy" xr:uid="{70ECEACB-4A39-4EE1-811D-D2D0B856E280}"/>
-    <hyperlink ref="F12" r:id="rId188" location="high-level-strategy" xr:uid="{3846A3E1-2C5C-45BF-B452-3A70B181FA7D}"/>
-    <hyperlink ref="E94" r:id="rId189" xr:uid="{E2143023-BD75-4E85-84C5-4FFA2092FF84}"/>
-    <hyperlink ref="E95" r:id="rId190" location="list-of-decentralized-lakehouse-instances-1" xr:uid="{558299E3-A903-4FC6-93AA-2444734C3CB4}"/>
-    <hyperlink ref="E96" r:id="rId191" location="cross-functional-consumption-scenario" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx - cross-functional-consumption-scenario" xr:uid="{F57FB0F7-A0F4-47AE-BAC8-5B99E3F8555A}"/>
-    <hyperlink ref="E97" r:id="rId192" xr:uid="{EF30D372-7321-41A3-8CF3-7278FD42352D}"/>
-    <hyperlink ref="E98" r:id="rId193" location="certified-integration-patterns-repository" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Integration-Patterns.aspx - certified-integration-patterns-repository" xr:uid="{EBFFB570-E107-444A-A2C3-D7701EBF2FF0}"/>
-    <hyperlink ref="E99" r:id="rId194" location="zone-level-security" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - zone-level-security" xr:uid="{4DE82FC4-530B-4FFB-9A67-984F66AA400B}"/>
-    <hyperlink ref="E100" r:id="rId195" location="lakehouse-zones-in-big-query" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_D4GV-Platform-Overview.aspx - lakehouse-zones-in-big-query" xr:uid="{222DAF28-A068-4518-8D0B-C2806FD53C0B}"/>
-    <hyperlink ref="E101" r:id="rId196" xr:uid="{279BD7E7-CC2B-45B4-9C32-D2AAF650332B}"/>
-    <hyperlink ref="E102" r:id="rId197" xr:uid="{58CA1246-8BBC-4679-AE5E-6E6FBDC37083}"/>
-    <hyperlink ref="E103" r:id="rId198" location="row-level-security" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - row-level-security" xr:uid="{E7193F5F-5137-4F2C-8832-8147062094A6}"/>
-    <hyperlink ref="E104" r:id="rId199" location="column-level-security-and-sensitive-data-protection" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - column-level-security-and-sensitive-data-protection" xr:uid="{BDFA1301-E359-497F-B216-35EB58047C96}"/>
-    <hyperlink ref="F94" r:id="rId200" xr:uid="{7971DAB4-5AAC-45F6-AED2-FD3183325A71}"/>
-    <hyperlink ref="F95" r:id="rId201" location="list-of-decentralized-lakehouse-instances-1" xr:uid="{B9341BA3-9E1C-4114-B60C-213942D1AAAF}"/>
-    <hyperlink ref="F96" r:id="rId202" location="cross-functional-consumption-scenario" xr:uid="{D01AE79E-C249-4EC4-B67D-4658AEF70EEE}"/>
-    <hyperlink ref="F97" r:id="rId203" xr:uid="{5F956C3A-1EF8-493B-A731-20D5489B584D}"/>
-    <hyperlink ref="F98" r:id="rId204" location="certified-integration-patterns-repository" xr:uid="{5108912D-B9D1-4DC7-9641-7D1089117EA2}"/>
-    <hyperlink ref="F99" r:id="rId205" location="zone-level-security" xr:uid="{6FA57E8C-CFF7-4E31-8721-2BD3929D63C7}"/>
-    <hyperlink ref="F100" r:id="rId206" location="lakehouse-zones-in-big-query" xr:uid="{633D1DBC-D5A5-443C-8A94-39DBA8307664}"/>
-    <hyperlink ref="F101" r:id="rId207" xr:uid="{03BB9AF2-4F8B-4AA9-99BC-7DB672436FC1}"/>
-    <hyperlink ref="F102" r:id="rId208" xr:uid="{D5286106-DD1B-4468-BAA6-2146DD525979}"/>
-    <hyperlink ref="F103" r:id="rId209" location="row-level-security" xr:uid="{79785102-EE72-483E-B9E7-EB543A61CC57}"/>
-    <hyperlink ref="F104" r:id="rId210" location="column-level-security-and-sensitive-data-protection" xr:uid="{CB3A7DD7-4264-4C3C-B2C3-2934A8D65E2E}"/>
-    <hyperlink ref="F15" r:id="rId211" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{151C010C-D0D2-45EE-B138-C24DDBED38B3}"/>
-    <hyperlink ref="E15" r:id="rId212" xr:uid="{208D805F-723A-48FE-8DE0-D9E225C3516E}"/>
-    <hyperlink ref="E105" r:id="rId213" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{2BE61D3D-415D-4E7D-85BF-664170F30D5D}"/>
-    <hyperlink ref="E106" r:id="rId214" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{0FBD40C5-5948-4E7B-B979-B793BAFE3A7B}"/>
-    <hyperlink ref="E107" r:id="rId215" xr:uid="{03A3F923-37DF-44A0-A311-174468E1C4EB}"/>
-    <hyperlink ref="E108" r:id="rId216" xr:uid="{0F61CA34-FF82-4248-AD41-FC958A021A4F}"/>
-    <hyperlink ref="E109" r:id="rId217" xr:uid="{418535C2-51FB-484A-8022-54D7D40E501D}"/>
-    <hyperlink ref="E110" r:id="rId218" xr:uid="{24FF202B-A587-42B0-AE49-F9857B3462DD}"/>
-    <hyperlink ref="E111" r:id="rId219" xr:uid="{9AB4B75C-ED9C-4F23-BED0-64C49C35A3E2}"/>
-    <hyperlink ref="F111" r:id="rId220" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F8B661F3-96D8-49A4-8579-7F3489533908}"/>
-    <hyperlink ref="F110" r:id="rId221" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{427EC185-FBEB-4B6C-A6B3-032ACEAEE1D1}"/>
-    <hyperlink ref="F109" r:id="rId222" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{CBB3A2B0-E9A7-4137-9EE5-6C350B4B60CD}"/>
-    <hyperlink ref="F108" r:id="rId223" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{D919740D-4FC7-42EF-9569-0BB2AD204EAA}"/>
-    <hyperlink ref="F107" r:id="rId224" xr:uid="{4A588F2E-2B21-41B9-B104-140521E2DBBA}"/>
-    <hyperlink ref="F106" r:id="rId225" xr:uid="{54360AF2-A9CE-4052-BC53-6B6E1E9C3791}"/>
-    <hyperlink ref="F105" r:id="rId226" xr:uid="{265F8B63-B119-4B33-BCF5-924779F12F13}"/>
+    <hyperlink ref="E59" r:id="rId15" xr:uid="{C9B5CF69-8987-424C-8F20-66D362A2C12D}"/>
+    <hyperlink ref="E58" r:id="rId16" xr:uid="{0BE0E0F4-A8F0-4A77-9164-DD340F69677A}"/>
+    <hyperlink ref="E57" r:id="rId17" xr:uid="{2501E0CA-BFF1-42DE-AE77-BC958B364763}"/>
+    <hyperlink ref="E56" r:id="rId18" xr:uid="{BD52AF16-2BBA-441F-A592-8A2D9F2C83A4}"/>
+    <hyperlink ref="E55" r:id="rId19" xr:uid="{565D6E72-B6B9-4C95-ABA9-9429D45E0DDF}"/>
+    <hyperlink ref="E42" r:id="rId20" xr:uid="{67C6D6DE-DEF8-4FB2-8612-469E441DD613}"/>
+    <hyperlink ref="E41" r:id="rId21" xr:uid="{8CF3EC86-4232-4237-B44A-67C19504998A}"/>
+    <hyperlink ref="E38" r:id="rId22" display="https://collaboration.mdlz.com/sites/GlobalInformationArchitecture/Teamsite%20Docs/Forms/AllItems.aspx?RootFolder=%2Fsites%2FGlobalInformationArchitecture%2FTeamsite%20Docs%2F03%20Data%20Modelling%2F08%20Internal%2FDMGB%2FGoogle%20Cloud%20Platform%20%28GCP%29&amp;FolderCTID=0x012000C84CF3322F5395439F970FFE45F11624&amp;View=%7B0051ADD9%2D3492%2D4EB4%2D9003%2D8DFC4812C26A%7D" xr:uid="{CC4B9869-C29C-46F3-B287-2316039C2E19}"/>
+    <hyperlink ref="E36" r:id="rId23" xr:uid="{456ADA60-16DA-484E-883F-8707EA751CF8}"/>
+    <hyperlink ref="E35" r:id="rId24" xr:uid="{5A753773-5C17-4ADD-8C4A-366528AFA560}"/>
+    <hyperlink ref="E34" r:id="rId25" display="https://teams.mdlz.com/sites/ibsdataandanalytics/Shared%20Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=84dhni&amp;CID=1970e002%2Dc09b%2D4529%2Dae90%2Dc45ebad9e166&amp;FolderCTID=0x012000442F74408945C8449981E1D447B1A95A&amp;id=%2Fsites%2Fibsdataandanalytics%2FShared%20Documents%2FDemand%20Intake%20%28Demand%20Management%29%2FInventory&amp;viewid=ef187201%2D331f%2D4fed%2D9fa9%2D4a5466e904fe" xr:uid="{DFC81AD3-2B79-42DC-8D54-13E4C0470F8E}"/>
+    <hyperlink ref="E32" r:id="rId26" xr:uid="{F04ED0D4-F445-40E8-8E58-2589FF117322}"/>
+    <hyperlink ref="E31" r:id="rId27" xr:uid="{F0AAC984-5059-47CD-B9EE-6D85858CCFAD}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{35C80290-8A76-4B64-99F1-B574A9D5C6EF}"/>
+    <hyperlink ref="E28" r:id="rId29" xr:uid="{90EDFEA4-5DD7-4A14-A1D8-0C7F95925C34}"/>
+    <hyperlink ref="E23" r:id="rId30" xr:uid="{19660AAA-ACC9-474C-B197-147EB625060D}"/>
+    <hyperlink ref="E22" r:id="rId31" xr:uid="{465D43E2-D47A-4B64-8DE2-81BBD53C4C87}"/>
+    <hyperlink ref="E16" r:id="rId32" xr:uid="{809D2478-6369-4614-8080-BF7B17C99938}"/>
+    <hyperlink ref="E20" r:id="rId33" xr:uid="{4F9B489D-28CD-4B53-BE6B-57AFB0910D4B}"/>
+    <hyperlink ref="E37" r:id="rId34" xr:uid="{AC263CAA-FA63-4773-950B-21A9093827BA}"/>
+    <hyperlink ref="E19" r:id="rId35" xr:uid="{A67E0CAC-B324-4165-BB2D-E4B33C536308}"/>
+    <hyperlink ref="E18" r:id="rId36" xr:uid="{0F8D66A4-1A9D-41FC-A84B-B60915CF0A17}"/>
+    <hyperlink ref="E17" r:id="rId37" xr:uid="{3B78E189-C2F7-46AF-8239-B1DE21D8EC14}"/>
+    <hyperlink ref="E64" r:id="rId38" xr:uid="{50FA1012-8249-4E58-8823-79887C67908E}"/>
+    <hyperlink ref="E63" r:id="rId39" xr:uid="{F52B67BA-2FE6-460B-8392-D47E7AAC0292}"/>
+    <hyperlink ref="E62" r:id="rId40" xr:uid="{2DE72495-E0E0-46C8-BADE-EBF6444469DB}"/>
+    <hyperlink ref="E26" r:id="rId41" xr:uid="{DD2C39DA-D6CB-4520-8C88-441E1827EE5C}"/>
+    <hyperlink ref="E27" r:id="rId42" xr:uid="{4F6EEDB5-9C0A-4EA7-B9FA-3E68BD396E9A}"/>
+    <hyperlink ref="E13" r:id="rId43" xr:uid="{AC414B62-9A7B-4B7B-8E4C-567EB618631E}"/>
+    <hyperlink ref="E76" r:id="rId44" xr:uid="{E425C267-4132-46E8-8B55-EF90DFDB2294}"/>
+    <hyperlink ref="E75" r:id="rId45" xr:uid="{9650BE8A-1ABE-45DA-9078-04937240F75C}"/>
+    <hyperlink ref="E74" r:id="rId46" xr:uid="{48090E4E-4843-4EEB-9D4E-8DCD9BCA72D9}"/>
+    <hyperlink ref="E71" r:id="rId47" xr:uid="{B83621A1-0420-4925-ADE8-B909FF267105}"/>
+    <hyperlink ref="E69" r:id="rId48" xr:uid="{B57F3E74-8F01-45AA-9239-B5B8D0090662}"/>
+    <hyperlink ref="E68" r:id="rId49" xr:uid="{11BAE57F-7FE9-4D9F-A709-E42FE89998B5}"/>
+    <hyperlink ref="E54" r:id="rId50" xr:uid="{7DDD7085-558E-43C5-B519-935AC2D923B3}"/>
+    <hyperlink ref="E53" r:id="rId51" xr:uid="{6C9C9FDD-ADF0-4C05-8E4F-C77D71C7B704}"/>
+    <hyperlink ref="E52" r:id="rId52" xr:uid="{F95577AB-8CB4-4BA8-A804-66C2E69312E0}"/>
+    <hyperlink ref="E51" r:id="rId53" xr:uid="{E378EE4E-0C39-4CAE-9979-58FFD29F216B}"/>
+    <hyperlink ref="E50" r:id="rId54" xr:uid="{944E3722-0C65-4FF0-8574-1D80ADD42183}"/>
+    <hyperlink ref="E49" r:id="rId55" xr:uid="{3FD6CD22-665F-4A95-82B0-84EAD62C7331}"/>
+    <hyperlink ref="E48" r:id="rId56" xr:uid="{1F212AB4-942F-4CE1-A355-87E7EFCA59E9}"/>
+    <hyperlink ref="E46" r:id="rId57" xr:uid="{11BE553E-F607-4CE7-B916-5476AEA7FFCC}"/>
+    <hyperlink ref="E44" r:id="rId58" xr:uid="{B98E24EC-931D-48E1-8B30-C6007D202F8C}"/>
+    <hyperlink ref="E43" r:id="rId59" xr:uid="{7392B55F-9A6D-4BB6-82BD-EC3A839EB271}"/>
+    <hyperlink ref="E33" r:id="rId60" xr:uid="{AF1F7CF6-28A6-481A-BD7B-C1F472DCF452}"/>
+    <hyperlink ref="E30" r:id="rId61" xr:uid="{60065E9E-58F8-409B-8963-8848D5F10AA1}"/>
+    <hyperlink ref="E14" r:id="rId62" xr:uid="{0061FA96-2237-4E7D-9A7F-597618428A6C}"/>
+    <hyperlink ref="E10" r:id="rId63" xr:uid="{F0ECBBAE-0D96-4638-91A3-63464B248A7A}"/>
+    <hyperlink ref="E7" r:id="rId64" xr:uid="{62548266-15A2-4615-B711-31611204224E}"/>
+    <hyperlink ref="E6" r:id="rId65" xr:uid="{759AF8B6-ED20-4EAF-8DB9-0FD2B8442629}"/>
+    <hyperlink ref="E5" r:id="rId66" xr:uid="{3074B0C2-AF4E-4AAF-8129-163B772D5908}"/>
+    <hyperlink ref="E9" r:id="rId67" xr:uid="{F3E446E6-0C7B-45B4-962A-A6C751C2540F}"/>
+    <hyperlink ref="F76" r:id="rId68" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{9867CAF2-6FCD-4820-9C27-32DA5B72D253}"/>
+    <hyperlink ref="F75" r:id="rId69" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{591E5EED-CAB2-4BBA-A9F4-1CA3B1F8D869}"/>
+    <hyperlink ref="G74" r:id="rId70" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{8278A77C-BD81-4627-9221-4219BB90AC08}"/>
+    <hyperlink ref="F74" r:id="rId71" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{CE059ADC-6593-4384-8635-CA0EE6AEE7C9}"/>
+    <hyperlink ref="F72" r:id="rId72" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSectionb42953d2b733bb5dd6bd?experience=power-bi" xr:uid="{34154F27-7F7B-4066-A191-511F7D0AF888}"/>
+    <hyperlink ref="F71" r:id="rId73" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{0859B6D9-E623-4946-A526-7CD2BD3DE51F}"/>
+    <hyperlink ref="F70" r:id="rId74" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSection?experience=power-bi" xr:uid="{BAE0BF21-E86D-4A88-9650-9CFCE4782EB6}"/>
+    <hyperlink ref="F69" r:id="rId75" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{C57306CA-EAC3-40DF-A343-FA1178E5728B}"/>
+    <hyperlink ref="F68" r:id="rId76" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{9EB27B76-E0D8-4E48-87C8-4DF7E662EA48}"/>
+    <hyperlink ref="F67" r:id="rId77" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{51072E9D-621D-4C68-A2FE-725D880607E0}"/>
+    <hyperlink ref="F66" r:id="rId78" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{1B892013-6EFE-4FBE-82A0-1FB2CD4DF289}"/>
+    <hyperlink ref="F65" r:id="rId79" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{3F27E5F9-0378-42B0-8F03-D9C6C7B44762}"/>
+    <hyperlink ref="F64" r:id="rId80" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{E3D08A91-8AC8-4C53-BA4D-038D1C7598A4}"/>
+    <hyperlink ref="G63" r:id="rId81" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{40DD8C87-0F9F-4B48-BF52-A2E4776F3EF1}"/>
+    <hyperlink ref="F63" r:id="rId82" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{C70B2A6F-7885-4645-AC8C-DE34699EF0BE}"/>
+    <hyperlink ref="G62" r:id="rId83" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{458E7787-8786-4032-8A0D-A2F7F116404E}"/>
+    <hyperlink ref="F62" r:id="rId84" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{0EDD96FC-6962-4EA5-9DD8-47DA6F849526}"/>
+    <hyperlink ref="F61" r:id="rId85" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{4F26B3EC-FCBE-4E9A-96DA-1373FEDEB838}"/>
+    <hyperlink ref="F59" r:id="rId86" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{F33F75FE-C766-40FA-BF6C-40609279EC84}"/>
+    <hyperlink ref="F58" r:id="rId87" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{2B26B620-89B4-4C32-B8B8-46512E4BDB72}"/>
+    <hyperlink ref="F57" r:id="rId88" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{DA516C46-1107-4A85-BCC4-D9E20122F9B0}"/>
+    <hyperlink ref="F56" r:id="rId89" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{0B8C35B6-3936-4575-A80F-0940D5E684C0}"/>
+    <hyperlink ref="F55" r:id="rId90" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{0C872069-8AC3-46AD-ADE1-635E8AA3A1B7}"/>
+    <hyperlink ref="F54" r:id="rId91" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{82CD685A-0390-4F58-BCD1-3A8C83567296}"/>
+    <hyperlink ref="F53" r:id="rId92" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{F73788BD-4321-49D1-B302-17F2255A4187}"/>
+    <hyperlink ref="F52" r:id="rId93" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{FDCDFB82-30F2-4F1F-92A1-12337DDD9352}"/>
+    <hyperlink ref="F51" r:id="rId94" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{B015FBDC-5ADE-4F7A-A9B3-F17F3E3E293F}"/>
+    <hyperlink ref="F50" r:id="rId95" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{3181A8D5-43E8-42F1-B647-0B7E6B568CAB}"/>
+    <hyperlink ref="F49" r:id="rId96" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1600E465-E9CC-4EE6-9880-7141BC94999F}"/>
+    <hyperlink ref="F48" r:id="rId97" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{612ECDF9-26FE-4827-AFB5-9F52CC18AC9B}"/>
+    <hyperlink ref="F47" r:id="rId98" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{A6CADB67-155A-44C8-A39C-EE37F5AF617D}"/>
+    <hyperlink ref="F46" r:id="rId99" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{A3E36300-F9C5-4FB8-8583-27F0592AEC4E}"/>
+    <hyperlink ref="F45" r:id="rId100" display="../../../../:x:/r/sites/dadocumentrepository/Shared Documents/General/Templates/gcp template for objects to be added in config sheet v2.0.xlsx?d=w1bbc4240fbcc438496f29750f91d6a4b&amp;csf=1&amp;web=1&amp;e=q63Sy6" xr:uid="{C5D3CAA7-6722-4E97-9595-6F27C53453ED}"/>
+    <hyperlink ref="F44" r:id="rId101" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{6349C4E6-467E-4BB0-A69C-EE1EC2439648}"/>
+    <hyperlink ref="F43" r:id="rId102" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{FA9F97BE-2456-4D29-AC6B-30981ED16685}"/>
+    <hyperlink ref="F42" r:id="rId103" display="../../../../:x:/s/dadocumentrepository/Ed33gQWPYzdKv0ohxxDwgBwBvkW3A8oyg-3tvHZBCXbf6w?e=LK7BgY" xr:uid="{600DCF95-01B6-4708-8821-A7D523F1B230}"/>
+    <hyperlink ref="F41" r:id="rId104" display="../../../../:x:/s/dadocumentrepository/Ed33gQWPYzdKv0ohxxDwgBwBvkW3A8oyg-3tvHZBCXbf6w?e=LK7BgY" xr:uid="{F57E9171-154D-45CB-B7F2-3D017B5C2046}"/>
+    <hyperlink ref="F40" r:id="rId105" display="../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{6FF2CF78-3E3E-416E-AAF3-04D22BAAC71B}"/>
+    <hyperlink ref="F39" r:id="rId106" display="../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{97C36AAA-C61A-4A66-B62C-C9C6E92E25FC}"/>
+    <hyperlink ref="F38" r:id="rId107" display="https://collaboration.mdlz.com/sites/GlobalInformationArchitecture/Teamsite Docs/Forms/AllItems.aspx?RootFolder=%2Fsites%2FGlobalInformationArchitecture%2FTeamsite%20Docs%2F03%20Data%20Modelling%2F08%20Internal%2FDMGB%2FGoogle%20Cloud%20Platform%20%28GCP%29&amp;FolderCTID=0x012000C84CF3322F5395439F970FFE45F11624&amp;View=%7B0051ADD9%2D3492%2D4EB4%2D9003%2D8DFC4812C26A%7D" xr:uid="{02C1B7D3-FB88-42C6-936D-C6FB6132D9D5}"/>
+    <hyperlink ref="F37" r:id="rId108" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{745009E0-1B7B-4291-9DBA-3244501D95F9}"/>
+    <hyperlink ref="F35" r:id="rId109" xr:uid="{D3AA1FF5-634E-4695-8D4A-3573FF16FF84}"/>
+    <hyperlink ref="F34" r:id="rId110" display="../../../ibsdataandanalytics/Shared Documents/Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=84dhni&amp;CID=1970e002%2Dc09b%2D4529%2Dae90%2Dc45ebad9e166&amp;FolderCTID=0x012000442F74408945C8449981E1D447B1A95A&amp;id=%2Fsites%2Fibsdataandanalytics%2FShared%20Documents%2FDemand%20Intake%20%28Demand%20Management%29%2FInventory&amp;viewid=ef187201%2D331f%2D4fed%2D9fa9%2D4a5466e904fe" xr:uid="{AF797BDA-A4DB-4879-9101-F93DCACBF4C4}"/>
+    <hyperlink ref="F33" r:id="rId111" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{BDA9D5AC-E305-4375-BDCB-A3A2C70A472C}"/>
+    <hyperlink ref="F32" r:id="rId112" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{46EE7B3F-0273-463D-B0A9-DCD842863A1F}"/>
+    <hyperlink ref="F30" r:id="rId113" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{70B2CD7B-6CDC-4217-AFEB-4A6AC5C86B81}"/>
+    <hyperlink ref="F29" r:id="rId114" display="../../../../:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{CCD37624-847E-4FA1-82DD-AA197880B1BE}"/>
+    <hyperlink ref="F28" r:id="rId115" display="../../../../:x:/s/dadocumentrepository/ETxZMJmOoXtPn56iyMKWILMB8Y3nqyjsz0TwMKQHlisXpQ" xr:uid="{21C71FB1-879B-4CE1-A339-E508591A6958}"/>
+    <hyperlink ref="F27" r:id="rId116" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{AA3036CB-1C68-43BE-854C-EC292421BD10}"/>
+    <hyperlink ref="F26" r:id="rId117" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4C81825C-D975-41F0-A666-EEA72F608211}"/>
+    <hyperlink ref="F24" r:id="rId118" display="../../../../:x:/s/dadocumentrepository/EdxWMIB8ZxxBpsElZWp1Vs8BbNz1l4vqTUWuj2K0i8YxLQ?e=ocScpl" xr:uid="{C4C085F5-00BD-4B5D-9D52-D0540B07C2A8}"/>
+    <hyperlink ref="F23" r:id="rId119" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - TDD process-20240628_192242-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=hTamLo" xr:uid="{54A9E086-FA10-4D99-BA6A-FA6FB708D347}"/>
+    <hyperlink ref="F22" r:id="rId120" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - TDD process-20240628_192242-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=hTamLo" xr:uid="{5BB218F5-4C13-4153-A6BC-1B41EA5ED425}"/>
+    <hyperlink ref="F21" r:id="rId121" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/MDLZ - Tredence Onboarding Session - LDMs-20240627_193717-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=huqlGC" xr:uid="{753F7098-C7B3-4E17-AF1F-C3E2F4A6FF1C}"/>
+    <hyperlink ref="F20" r:id="rId122" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 2_ CDM-20240626_153706-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=cS1ef2" xr:uid="{39EB1B3E-27B1-44FB-8B36-ABDFAC4D5F8B}"/>
+    <hyperlink ref="F19" r:id="rId123" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 1_ IIT BRD-20240626_123420-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=5MZdUs" xr:uid="{1F1F5E2B-EE4B-4F99-99F7-DAE6CA3449CE}"/>
+    <hyperlink ref="F18" r:id="rId124" display="../../../../:v:/r/sites/dadocumentrepository/Shared Documents/General/Onboarding/Partner Onboarding/Tredence/Onboarding Session 1_ IIT BRD-20240626_123420-Meeting Recording.mp4?csf=1&amp;web=1&amp;e=5MZdUs" xr:uid="{93616845-B62C-4AB4-85EB-E73F1EAF01D3}"/>
+    <hyperlink ref="F17" r:id="rId125" display="../../../../:x:/r/sites/ibsdataandanalytics/Shared Documents/Demand Intake (Demand Management)/Tracker/Self-Service calculator - ROM for AR.xlsx?d=w79218858523d4b12a255c9a5f44abe45&amp;csf=1&amp;web=1&amp;e=VgtJLO" xr:uid="{BEF845F3-6C3A-4AA6-BF76-B71A92915C1E}"/>
+    <hyperlink ref="F16" r:id="rId126" display="../../../../:x:/r/sites/ibsdataandanalytics/Shared Documents/Demand Intake (Demand Management)/Tracker/Self-Service calculator - ROM for AR.xlsx?d=w79218858523d4b12a255c9a5f44abe45&amp;csf=1&amp;web=1&amp;e=VgtJLO" xr:uid="{6708F064-C65D-4829-94FE-14979D4496A8}"/>
+    <hyperlink ref="F14" r:id="rId127" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1B1E0613-449C-4E4F-9CB6-C8584B5CA3DA}"/>
+    <hyperlink ref="F13" r:id="rId128" display="../../../../:p:/s/ibsdataandanalytics/EVrP0mGMOf9EvBkgm8gU_5IBqPMpzSw1aYPDVTJZYX6hzw?e=EiwiBW" xr:uid="{63EC8D18-6F3D-4C13-BF66-AFA071C3FC6D}"/>
+    <hyperlink ref="F10" r:id="rId129" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{25E80D15-9E64-45BF-BAE9-C49F5F5D6B3C}"/>
+    <hyperlink ref="F9" r:id="rId130" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSection?experience=power-bi" xr:uid="{6A1008A0-A608-4A0D-B7B4-92596FDD5629}"/>
+    <hyperlink ref="F7" r:id="rId131" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{1E5F5CCB-0C32-403C-B218-BD8973F8369E}"/>
+    <hyperlink ref="F6" r:id="rId132" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F5F57EE7-743D-429B-BA15-E9DA53DB2D6C}"/>
+    <hyperlink ref="F5" r:id="rId133" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{E590615E-AF8E-439D-A3A4-B630A69A9010}"/>
+    <hyperlink ref="F4" r:id="rId134" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{8319F334-E55B-4064-BCE4-839676879ED0}"/>
+    <hyperlink ref="F3" r:id="rId135" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{524F87E9-CDDC-49AB-B9F4-88A802FC1416}"/>
+    <hyperlink ref="F2" r:id="rId136" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F4CD31E4-542B-4BB1-8982-3720E8D92EBF}"/>
+    <hyperlink ref="E39" r:id="rId137" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Data Domain Experts/../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{5895702F-D5C4-49C2-BF03-3FAFAEBCBBEF}"/>
+    <hyperlink ref="E40" r:id="rId138" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Data Domain Experts/../Forms/AllItems.aspx?csf=1&amp;web=1&amp;e=cOooFN&amp;siteid=%7BDF2C543F%2D3148%2D49A5%2DB765%2D9C39A157BF5E%7D&amp;webid=%7B49A03DE8%2D95AA%2D4ED1%2DADFE%2DCA67D143CEED%7D&amp;uniqueid=%7B59C7909E%2D675D%2D43A7%2D8ACA%2DC69C66F636D2%7D&amp;FolderCTID=0x012000240951C610FA4149A580AED509A39F7B&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates%2FHLD%20Template&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{E164F0E7-3C31-4612-9785-9BDD931A79F8}"/>
+    <hyperlink ref="E45" r:id="rId139" xr:uid="{4B4BC587-AA04-40D7-802C-54232295A852}"/>
+    <hyperlink ref="E77" r:id="rId140" xr:uid="{615BC649-E8CB-4F56-8FAA-59203E8FAABE}"/>
+    <hyperlink ref="E78" r:id="rId141" xr:uid="{68C0B065-BC94-43B6-B60E-1C87D9329AE6}"/>
+    <hyperlink ref="E79" r:id="rId142" xr:uid="{A2889DD6-4B21-4E85-89E4-2E413E97743A}"/>
+    <hyperlink ref="E80" r:id="rId143" xr:uid="{C9526E0D-6D70-480D-80F6-7C25A5D05D84}"/>
+    <hyperlink ref="E81" r:id="rId144" xr:uid="{F79B17E9-E5E1-4682-BE14-02309E82801C}"/>
+    <hyperlink ref="E82" r:id="rId145" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{F8E298A9-D82A-4F65-AB92-3861B1BA6A03}"/>
+    <hyperlink ref="E83" r:id="rId146" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{08B439EF-B172-4F73-BAFE-40C0627CDFC6}"/>
+    <hyperlink ref="E84" r:id="rId147" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FGithub&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{3CC686B1-9C15-48F1-80EB-BC6970B7A1A6}"/>
+    <hyperlink ref="E85" r:id="rId148" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FAutomic&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{63FB6FF1-1327-4E25-9322-7F48DA7BD2A4}"/>
+    <hyperlink ref="E86" r:id="rId149" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FNaming%20Convention&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{D171D700-6885-452F-9F72-073B26067447}"/>
+    <hyperlink ref="E87" r:id="rId150" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FWorkflow%20best%20Practices&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{A1E63B6C-8E54-435D-B108-16DF8C4F4292}"/>
+    <hyperlink ref="E88" r:id="rId151" xr:uid="{6F9E2F46-75CF-45C3-A844-CBF2EE4195DE}"/>
+    <hyperlink ref="E89" r:id="rId152" xr:uid="{E8B37FB3-CFF4-4399-BB28-6BECAA3742EF}"/>
+    <hyperlink ref="E90" r:id="rId153" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared%20Documents/General/Data%20Ingestion%20%26%20Engineering%20Tower/AecorSoft/Aecorsoft%20CDC%20task%20configuration%20for%20init%20and%20delta%20load.docx?d=w729d1b343ff64dca9f9c287751dc0908&amp;csf=1&amp;web=1&amp;e=3OAvh1" xr:uid="{D745C36D-B72F-4AA7-A8C3-2A4DC6731F20}"/>
+    <hyperlink ref="E91" r:id="rId154" xr:uid="{4897C36E-281F-4878-9871-6BFA39CA2D9E}"/>
+    <hyperlink ref="F77" r:id="rId155" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{766A6DA7-7398-4A09-B6DD-87174E3031F9}"/>
+    <hyperlink ref="F78" r:id="rId156" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{E78BC6FF-4E17-4F95-853C-5BCA6959ECA5}"/>
+    <hyperlink ref="F79" r:id="rId157" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{666694D8-A717-4816-9528-155C63F6EA7A}"/>
+    <hyperlink ref="F80" r:id="rId158" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{E17B8DA9-5C81-439D-BD98-6E9FA73305B0}"/>
+    <hyperlink ref="F81" r:id="rId159" display="https://teams.mdlz.com/:v:/s/dadocumentrepository/EQ6Fv2roU5ZPkHmVzrEZMmcB7KbJW2owkcr9snTwFCFaXw?e=xrpq28" xr:uid="{E4C995C5-55E5-47F2-BB9C-86D2B940D901}"/>
+    <hyperlink ref="F82" r:id="rId160" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{139D63ED-6FCC-4B80-B6E3-EBE9017CD5B5}"/>
+    <hyperlink ref="F83" r:id="rId161" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FOnboarding&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{928A8B63-0BCD-471D-8309-F00AA92688BA}"/>
+    <hyperlink ref="F84" r:id="rId162" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FGithub&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{5E23FBD5-ADCD-4372-BCAA-BE3EB2F3322E}"/>
+    <hyperlink ref="F85" r:id="rId163" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FAutomic&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{3BE913CB-FFC3-45BF-BD72-1CF965B9685E}"/>
+    <hyperlink ref="F86" r:id="rId164" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FNaming%20Convention&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{BF28B088-055D-4027-8379-899AC2AA5F25}"/>
+    <hyperlink ref="F87" r:id="rId165" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2Fdadocumentrepository%2FShared%20Documents&amp;viewpath=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FAzure%2FWorkflow%20best%20Practices&amp;viewid=80e1556b%2D77f2%2D43ef%2Dacee%2Dddb833b8a269" xr:uid="{B570AC19-9328-4C88-BC8A-D51E1E70EA7C}"/>
+    <hyperlink ref="F88" r:id="rId166" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft Access Request.docx?d=w6d9ab4d3d2f04991b6816d590966d12f&amp;csf=1&amp;web=1&amp;e=vgXvXk" xr:uid="{6B9E2D68-93B3-4BBA-AE75-15F0DE369A40}"/>
+    <hyperlink ref="F89" r:id="rId167" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft CDC to BQ Task Guidelines.docx?d=w0b729a15ca8c41389ab6f1c3e796602b&amp;csf=1&amp;web=1&amp;e=4vgNBO" xr:uid="{BE39935E-07F8-4F34-8050-7AA23FB635D3}"/>
+    <hyperlink ref="F90" r:id="rId168" display="https://teams.mdlz.com/:w:/r/sites/dadocumentrepository/Shared Documents/General/Data Ingestion %26 Engineering Tower/AecorSoft/Aecorsoft CDC task configuration for init and delta load.docx?d=w729d1b343ff64dca9f9c287751dc0908&amp;csf=1&amp;web=1&amp;e=3OAvh1" xr:uid="{E3FA2B4E-7A32-4B8E-9E64-8B8D585B5FAD}"/>
+    <hyperlink ref="F91" r:id="rId169" display="https://teams.mdlz.com/:w:/s/dadocumentrepository/EeWQW49qOuhAn50aSi7_jmcBP5hMdobNQfDLu8LntsfHLw?e=d6GrrP" xr:uid="{B7D9E73F-A3E9-4B82-AFE1-D75D4C27C2FF}"/>
+    <hyperlink ref="F92" r:id="rId170" display="../../../../:b:/s/dadocumentrepository/EQtd_KpL0F1Ct47CBwFYPCEBAnnanAL9si5ZyXBfYdL1Jw?e=NJdhKP" xr:uid="{4B62558A-94A0-4AFC-BFC7-2DC10922E43E}"/>
+    <hyperlink ref="F93" r:id="rId171" display="../../../../:b:/s/dadocumentrepository/EaCM77nIUIhAspPUFy-P0UsBIEVBLHGi1AZ9QLbrrBrLcA?e=vjl2Jr" xr:uid="{B6A65FEA-06F7-47B1-BE75-472ACAC427CB}"/>
+    <hyperlink ref="F92:F93" r:id="rId172" display="DIAT_developer_user guide.pdf" xr:uid="{FD3DCBFB-7FA8-4EC5-A58B-65560951B7AB}"/>
+    <hyperlink ref="E92" r:id="rId173" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT%2FDIAT%5Fdeveloper%5Fuser%20guide%2Epdf&amp;parent=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT&amp;p=true&amp;ga=1" xr:uid="{14EE2880-43BC-44F3-99BD-8350858BC0D5}"/>
+    <hyperlink ref="E93" r:id="rId174" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT%2FDIAT%5Fproject%20team%5Fuser%20guide%2Epdf&amp;parent=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FData%20Ingestion%20%26%20Engineering%20Tower%2FDIAT&amp;p=true&amp;ga=1" xr:uid="{1501457E-EC4C-4908-A9A0-3632566ACD1D}"/>
+    <hyperlink ref="E60" r:id="rId175" xr:uid="{202E8945-B70F-4594-931A-78A2A52CD767}"/>
+    <hyperlink ref="F60" r:id="rId176" display="../../../../:w:/s/dadocumentrepository/ESoHjPvfvk1GvGZWkC739G8B8Wk3tFbCJiZBeqFrgvzleQ?e=3w8y5c" xr:uid="{016AFD8D-57A0-446A-A61C-435C09C12EC4}"/>
+    <hyperlink ref="E12" r:id="rId177" location="high-level-strategy" xr:uid="{70ECEACB-4A39-4EE1-811D-D2D0B856E280}"/>
+    <hyperlink ref="F12" r:id="rId178" location="high-level-strategy" xr:uid="{3846A3E1-2C5C-45BF-B452-3A70B181FA7D}"/>
+    <hyperlink ref="E94" r:id="rId179" xr:uid="{E2143023-BD75-4E85-84C5-4FFA2092FF84}"/>
+    <hyperlink ref="E95" r:id="rId180" location="list-of-decentralized-lakehouse-instances-1" xr:uid="{558299E3-A903-4FC6-93AA-2444734C3CB4}"/>
+    <hyperlink ref="E96" r:id="rId181" location="cross-functional-consumption-scenario" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx - cross-functional-consumption-scenario" xr:uid="{F57FB0F7-A0F4-47AE-BAC8-5B99E3F8555A}"/>
+    <hyperlink ref="E97" r:id="rId182" xr:uid="{EF30D372-7321-41A3-8CF3-7278FD42352D}"/>
+    <hyperlink ref="E98" r:id="rId183" location="certified-integration-patterns-repository" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Integration-Patterns.aspx - certified-integration-patterns-repository" xr:uid="{EBFFB570-E107-444A-A2C3-D7701EBF2FF0}"/>
+    <hyperlink ref="E99" r:id="rId184" location="zone-level-security" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - zone-level-security" xr:uid="{4DE82FC4-530B-4FFB-9A67-984F66AA400B}"/>
+    <hyperlink ref="E100" r:id="rId185" location="lakehouse-zones-in-big-query" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_D4GV-Platform-Overview.aspx - lakehouse-zones-in-big-query" xr:uid="{222DAF28-A068-4518-8D0B-C2806FD53C0B}"/>
+    <hyperlink ref="E101" r:id="rId186" xr:uid="{279BD7E7-CC2B-45B4-9C32-D2AAF650332B}"/>
+    <hyperlink ref="E102" r:id="rId187" xr:uid="{58CA1246-8BBC-4679-AE5E-6E6FBDC37083}"/>
+    <hyperlink ref="E103" r:id="rId188" location="row-level-security" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - row-level-security" xr:uid="{E7193F5F-5137-4F2C-8832-8147062094A6}"/>
+    <hyperlink ref="E104" r:id="rId189" location="column-level-security-and-sensitive-data-protection" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_Security.aspx - column-level-security-and-sensitive-data-protection" xr:uid="{BDFA1301-E359-497F-B216-35EB58047C96}"/>
+    <hyperlink ref="F94" r:id="rId190" xr:uid="{7971DAB4-5AAC-45F6-AED2-FD3183325A71}"/>
+    <hyperlink ref="F95" r:id="rId191" location="list-of-decentralized-lakehouse-instances-1" xr:uid="{B9341BA3-9E1C-4114-B60C-213942D1AAAF}"/>
+    <hyperlink ref="F96" r:id="rId192" location="cross-functional-consumption-scenario" xr:uid="{D01AE79E-C249-4EC4-B67D-4658AEF70EEE}"/>
+    <hyperlink ref="F97" r:id="rId193" xr:uid="{5F956C3A-1EF8-493B-A731-20D5489B584D}"/>
+    <hyperlink ref="F98" r:id="rId194" location="certified-integration-patterns-repository" xr:uid="{5108912D-B9D1-4DC7-9641-7D1089117EA2}"/>
+    <hyperlink ref="F99" r:id="rId195" location="zone-level-security" xr:uid="{6FA57E8C-CFF7-4E31-8721-2BD3929D63C7}"/>
+    <hyperlink ref="F100" r:id="rId196" location="lakehouse-zones-in-big-query" xr:uid="{633D1DBC-D5A5-443C-8A94-39DBA8307664}"/>
+    <hyperlink ref="F101" r:id="rId197" xr:uid="{03BB9AF2-4F8B-4AA9-99BC-7DB672436FC1}"/>
+    <hyperlink ref="F102" r:id="rId198" xr:uid="{D5286106-DD1B-4468-BAA6-2146DD525979}"/>
+    <hyperlink ref="F103" r:id="rId199" location="row-level-security" xr:uid="{79785102-EE72-483E-B9E7-EB543A61CC57}"/>
+    <hyperlink ref="F104" r:id="rId200" location="column-level-security-and-sensitive-data-protection" xr:uid="{CB3A7DD7-4264-4C3C-B2C3-2934A8D65E2E}"/>
+    <hyperlink ref="F15" r:id="rId201" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{151C010C-D0D2-45EE-B138-C24DDBED38B3}"/>
+    <hyperlink ref="E15" r:id="rId202" xr:uid="{208D805F-723A-48FE-8DE0-D9E225C3516E}"/>
+    <hyperlink ref="E105" r:id="rId203" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{2BE61D3D-415D-4E7D-85BF-664170F30D5D}"/>
+    <hyperlink ref="E106" r:id="rId204" display="https://teams.mdlz.com/sites/enterprisedataplatformteam/Shared%20Documents/Forms/AllItems.aspx?FolderCTID=0x012000C3AAEF24304CAA4B9AE73A9B852BAD69&amp;id=%2Fsites%2Fenterprisedataplatformteam%2FShared%20Documents%2FGeneral%2FD%26A%5FGovernance%20%26%20Methodology%2F1%2E%20D%26A%20Operating%20Model&amp;viewid=dcc42cc8%2D5e92%2D450b%2D8c7b%2Df21901772f1b" xr:uid="{0FBD40C5-5948-4E7B-B979-B793BAFE3A7B}"/>
+    <hyperlink ref="E107" r:id="rId205" xr:uid="{03A3F923-37DF-44A0-A311-174468E1C4EB}"/>
+    <hyperlink ref="E108" r:id="rId206" xr:uid="{0F61CA34-FF82-4248-AD41-FC958A021A4F}"/>
+    <hyperlink ref="E109" r:id="rId207" xr:uid="{418535C2-51FB-484A-8022-54D7D40E501D}"/>
+    <hyperlink ref="E110" r:id="rId208" xr:uid="{24FF202B-A587-42B0-AE49-F9857B3462DD}"/>
+    <hyperlink ref="E111" r:id="rId209" xr:uid="{9AB4B75C-ED9C-4F23-BED0-64C49C35A3E2}"/>
+    <hyperlink ref="F111" r:id="rId210" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{F8B661F3-96D8-49A4-8579-7F3489533908}"/>
+    <hyperlink ref="F110" r:id="rId211" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{427EC185-FBEB-4B6C-A6B3-032ACEAEE1D1}"/>
+    <hyperlink ref="F109" r:id="rId212" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{CBB3A2B0-E9A7-4137-9EE5-6C350B4B60CD}"/>
+    <hyperlink ref="F108" r:id="rId213" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{D919740D-4FC7-42EF-9569-0BB2AD204EAA}"/>
+    <hyperlink ref="F107" r:id="rId214" xr:uid="{4A588F2E-2B21-41B9-B104-140521E2DBBA}"/>
+    <hyperlink ref="F106" r:id="rId215" xr:uid="{54360AF2-A9CE-4052-BC53-6B6E1E9C3791}"/>
+    <hyperlink ref="F105" r:id="rId216" xr:uid="{265F8B63-B119-4B33-BCF5-924779F12F13}"/>
+    <hyperlink ref="E21" r:id="rId217" xr:uid="{82E9383D-E231-4B23-9568-6115CE756F91}"/>
+    <hyperlink ref="E47" r:id="rId218" xr:uid="{DA62E039-3933-4ABA-9494-9E077E79A90A}"/>
+    <hyperlink ref="E11" r:id="rId219" location="high-level-strategy" xr:uid="{BE629C0D-5232-4AB8-BDA5-9214137B74B5}"/>
+    <hyperlink ref="F11" r:id="rId220" location="high-level-strategy" xr:uid="{86F48422-B2BF-448D-9506-033BF050C9C2}"/>
+    <hyperlink ref="E8" r:id="rId221" xr:uid="{B45386E7-725E-4E43-B0B0-1B5B4746AFAA}"/>
+    <hyperlink ref="F8" r:id="rId222" xr:uid="{F8AF2894-89D2-4E61-99C0-3EF6A2A45772}"/>
+    <hyperlink ref="E4" r:id="rId223" xr:uid="{9C103A79-9393-4909-9F3C-32133C732BE2}"/>
+    <hyperlink ref="E3" r:id="rId224" xr:uid="{F12BBEE6-3B70-4130-B5C4-A18DB599B09D}"/>
+    <hyperlink ref="E2" r:id="rId225" xr:uid="{C54A4052-5FFF-4249-A974-22CF6073179F}"/>
+    <hyperlink ref="F31" r:id="rId226" display="../../../../:w:/s/dadocumentrepository/EZEgrySuDI5ChmDd2oec7XoBnfmEyvUwV3n0OdOE2dKvVA" xr:uid="{A023D956-A386-434F-87BD-FA25FDD8889B}"/>
+    <hyperlink ref="F36" r:id="rId227" xr:uid="{D07B1093-AFBF-44F2-B333-846046DE774C}"/>
+    <hyperlink ref="F73" r:id="rId228" xr:uid="{C449116A-1DE7-41DE-9A54-078C825C4B9F}"/>
+    <hyperlink ref="E25" r:id="rId229" xr:uid="{D13E82E2-4EFF-4FD7-95EC-8933932CF73D}"/>
+    <hyperlink ref="F25" r:id="rId230" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4E97E50B-8F1C-4C4A-B517-F317866C8FF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId227"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId231"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E54440-F5AE-40CE-8CFB-E6002E297799}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="99.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="232.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2551EEDF-0D59-41D0-87A7-6668E8A29AE6}"/>
+    <hyperlink ref="C2" r:id="rId2" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{4AFF7B5A-912B-4881-B88C-B78BF1CE9DC3}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{899241AC-19FF-465D-B1D8-39AA38F6A77F}"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://teams.mdlz.com/:v:/s/dadocumentrepository/EQ6Fv2roU5ZPkHmVzrEZMmcB7KbJW2owkcr9snTwFCFaXw?e=xrpq28" xr:uid="{BEB59759-6973-4C1D-8791-804DE0079354}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{2BED99E2-1DA0-432E-A4A5-88D320A6BC3E}"/>
+    <hyperlink ref="C5" r:id="rId6" display="../../../../:b:/r/sites/dadocumentrepository/Shared Documents/Data Domain Experts/DaaS PPTs/May 2024 Visit Final versions/DaaS Day in life - Functional Towers.pdf?csf=1&amp;web=1&amp;e=b3v3fi" xr:uid="{144C8E5B-73B8-4332-AADD-3647397C07BF}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{6E6054C1-E84C-424A-97DB-36935C621343}"/>
+    <hyperlink ref="C6" r:id="rId8" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{22BE57D3-41BC-4EF0-8EB3-DC88D1944350}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{201E5A1D-8E91-4A34-AD40-5D59F5B3823B}"/>
+    <hyperlink ref="C7" r:id="rId10" display="https://collaboration.mdlz.com/sites/daas/SitePages/DA_DDD.aspx" xr:uid="{6147C299-FFCA-4AF1-9442-1BCC1E6BD752}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{EA896424-269F-49BB-93E8-99FA6D2C640A}"/>
+    <hyperlink ref="C8" r:id="rId12" display="https://app.powerbi.com/groups/7743ce93-99ab-4667-be9c-6ae1bd52187b/reports/925f3e64-5894-4f7b-ae0e-22fdcf14993b/ReportSection?experience=power-bi" xr:uid="{7C07B434-8011-42E6-95CC-3BC8300F422A}"/>
+    <hyperlink ref="C9" r:id="rId13" display="https://teams.mdlz.com/sites/dadocumentrepository/Shared Documents/Forms/AllItems.aspx?id=%2Fsites%2Fdadocumentrepository%2FShared%20Documents%2FGeneral%2FTemplates&amp;p=true&amp;ga=1" xr:uid="{ADB931ED-2C05-4189-9497-961C44E91B1F}"/>
+    <hyperlink ref="B9" r:id="rId14" xr:uid="{A9A8211F-68CA-49AA-85CD-814B39A1DD37}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{D10F205C-6797-4EEC-B353-6D8752A2E49B}"/>
+    <hyperlink ref="C10" r:id="rId16" display="../../../../:x:/s/dadocumentrepository/EVAvSZdEecNDjHXTWShSLnUBS6Ob7qraVc20t9GueDO69A?e=jQcq7S" xr:uid="{1618F3DF-301C-47E7-B5D5-96CD0E315043}"/>
+    <hyperlink ref="B11" r:id="rId17" xr:uid="{DE1090A9-0A7B-445E-ACE2-1E76ED1D8A5D}"/>
+    <hyperlink ref="C11" r:id="rId18" xr:uid="{B47B050D-5B28-4C3D-BDA9-B8774ECA6217}"/>
+    <hyperlink ref="B4" r:id="rId19" xr:uid="{32A67348-3315-4EA4-B968-C1FB48AF2D0D}"/>
+    <hyperlink ref="C4" r:id="rId20" xr:uid="{1F0BA727-989D-43C6-B103-92A2D5D31CEC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5A624E-043C-48C6-B064-C97761B1FEE2}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3945,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -5228,7 +5472,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>157</v>
@@ -5245,7 +5489,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>159</v>
@@ -5262,7 +5506,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>161</v>
@@ -5279,7 +5523,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>163</v>
@@ -5313,7 +5557,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>167</v>
@@ -5330,7 +5574,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>169</v>
@@ -5347,7 +5591,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>171</v>
@@ -5364,7 +5608,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>173</v>
@@ -5381,7 +5625,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>175</v>
@@ -5398,7 +5642,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>177</v>
@@ -5415,7 +5659,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>179</v>
@@ -5432,7 +5676,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>181</v>
@@ -5449,7 +5693,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>181</v>
@@ -5466,7 +5710,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>184</v>
@@ -5489,10 +5733,10 @@
         <v>165</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -5506,10 +5750,10 @@
         <v>165</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5605,129 +5849,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E54440-F5AE-40CE-8CFB-E6002E297799}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A18" xr:uid="{A1E54440-F5AE-40CE-8CFB-E6002E297799}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/chatbot-1.xlsx
+++ b/chatbot-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNO0785\Desktop\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91574907-33D2-49E5-A535-FB32E932DF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5123D4B-4F64-4424-B9A0-7E817B2F0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB1DE796-0A7F-4358-B0F5-62D7433C0693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1385,14 +1385,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
     <col min="3" max="3" width="40.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1"/>
@@ -1682,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>288</v>
       </c>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>288</v>
       </c>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>288</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>288</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>288</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>288</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>288</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>288</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>288</v>
       </c>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>288</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>270</v>
       </c>
@@ -3116,12 +3116,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>270</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>165</v>
@@ -3136,7 +3136,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>270</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>270</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>270</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>270</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>270</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -3336,12 +3336,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>270</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>165</v>
@@ -3356,12 +3356,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>270</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>165</v>
@@ -3596,7 +3596,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>289</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>289</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>289</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>290</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>290</v>
       </c>
@@ -3742,9 +3742,12 @@
   <autoFilter ref="A1:G113" xr:uid="{7EA498B8-987A-47B6-87ED-78E5DE62CE2C}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Ace"/>
-        <filter val="Demand"/>
-        <filter val="PM"/>
+        <filter val="Data COE(DaaS)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Data Ingestion and Engineering"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3989,7 +3992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E54440-F5AE-40CE-8CFB-E6002E297799}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
